--- a/public/plugin/xls/Surat Keterangan Catatan Kepolisian.xlsx
+++ b/public/plugin/xls/Surat Keterangan Catatan Kepolisian.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mazia\Downloads\Format Surat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps-desa-dukuh\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C463E1FA-C963-425C-8FAB-2E2032ADE421}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9090FF69-BF4A-4C10-B5A5-CDF15B455E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7290" xr2:uid="{633AE315-516A-4676-A2DD-3738AAD5F6F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{633AE315-516A-4676-A2DD-3738AAD5F6F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Surat Keterangan CK" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Surat Keterangan CK'!$A$1:$K$38</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>PEMERINTAH KABUPATEN BOGOR</t>
   </si>
@@ -33,9 +36,6 @@
     <t>KECAMATAN CIBUNGBULANG</t>
   </si>
   <si>
-    <t>DESA CIARUTEUN ILIR</t>
-  </si>
-  <si>
     <t>Nama</t>
   </si>
   <si>
@@ -54,15 +54,6 @@
     <t>:</t>
   </si>
   <si>
-    <t>KEPALA DESA CIARUTEUN ILIR</t>
-  </si>
-  <si>
-    <t>SUPANDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Yang bertanda tangan di bawah ini Kepala Desa Ciaruteun Ilir Kecamatan Cibungbulang Kabupaten Bogor, menerangkan dengan sebenarnya bahwa :</t>
-  </si>
-  <si>
     <t>Jenis Kelamin</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Ciaruteun Ilir, 30 Desember 2023</t>
-  </si>
-  <si>
     <t>Surat Keterangan ini digunakan untuk :</t>
   </si>
   <si>
@@ -87,9 +75,6 @@
     <t xml:space="preserve">        Demikian Surat Keterangan ini dibuat dengan sebenarnya agar maklum adanya.</t>
   </si>
   <si>
-    <t>Jl. Ciaruteun Ilir Rt 001 Rw 003 Desa Ciaruteun Ilir Cibungbulang Bogor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nomor </t>
   </si>
   <si>
@@ -97,6 +82,18 @@
   </si>
   <si>
     <t>SURAT KETERANGAN CATATAN KEPOLISIAN</t>
+  </si>
+  <si>
+    <t>DESA DUKUH</t>
+  </si>
+  <si>
+    <t>Jl Raya Galuga - Cijujung Km.2 Kec Cibungbulang Kab. Bogor Pos 16330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dukuh, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Yang bertanda tangan di bawah ini Kepala Desa Dukuh Kecamatan Cibungbulang Kabupaten Bogor, menerangkan dengan sebenarnya bahwa :</t>
   </si>
 </sst>
 </file>
@@ -209,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -219,10 +216,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -237,7 +231,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -248,49 +241,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -314,65 +307,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>50801</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:rowOff>92076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>267789</xdr:colOff>
+      <xdr:colOff>81155</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDED288-90A3-4E94-2ACF-7F0A6CC17561}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="127000" y="25401"/>
-          <a:ext cx="750389" cy="838199"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>267789</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -401,8 +344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="127000" y="25401"/>
-          <a:ext cx="750389" cy="841374"/>
+          <a:off x="50801" y="92076"/>
+          <a:ext cx="639954" cy="717549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -415,9 +358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -455,7 +398,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -561,7 +504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,7 +646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -711,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FF8E0-43B7-488C-B4D6-3C44AA0E3C95}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,41 +666,42 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="1.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -772,7 +716,7 @@
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -786,21 +730,21 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -815,21 +759,21 @@
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7" s="25"/>
-      <c r="F7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="F7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -883,153 +827,152 @@
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="18"/>
+      <c r="B13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15"/>
       <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="27" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -1056,76 +999,76 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="9"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="A26" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
+      <c r="A28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
@@ -1142,36 +1085,34 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-    </row>
-    <row r="34" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1179,7 +1120,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1187,7 +1128,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1195,21 +1136,19 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-    </row>
-    <row r="39" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1217,7 +1156,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1225,7 +1164,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1233,27 +1172,10 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M42" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="A28:K29"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="A23:K24"/>
-    <mergeCell ref="A9:K10"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A26:E26"/>
+  <mergeCells count="32">
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:K13"/>
@@ -1269,6 +1191,21 @@
     <mergeCell ref="E15:K15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:K16"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="A28:K29"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="A23:K24"/>
+    <mergeCell ref="A9:K10"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="256" orientation="portrait" r:id="rId1"/>
